--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/20/seed1/result_data_KNN.xlsx
@@ -496,10 +496,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.74</v>
+        <v>-20.866</v>
       </c>
       <c r="B4" t="n">
-        <v>7.654000000000001</v>
+        <v>7.043000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.578</v>
+        <v>6.38</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.612</v>
+        <v>-21.14</v>
       </c>
       <c r="B6" t="n">
-        <v>6.486</v>
+        <v>6.816</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.88</v>
+        <v>-21.089</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.112</v>
+        <v>-21.046</v>
       </c>
       <c r="B8" t="n">
-        <v>5.938</v>
+        <v>6.161</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.112</v>
+        <v>-20.998</v>
       </c>
       <c r="B16" t="n">
-        <v>5.600000000000001</v>
+        <v>6.653999999999999</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.208</v>
+        <v>-21.86</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.862</v>
+        <v>-21.14</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.600000000000001</v>
+        <v>6.626</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
